--- a/RESBOX.xlsx
+++ b/RESBOX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazzo\Desktop\RESBOX_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542C9F1-AFDE-4225-84F7-0AF68E3B7AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057A1A2-0F82-4486-8AF5-987AADB11072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D912C2F-04A0-4537-AB64-046C9AA2BC06}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>coordinate_y</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>bank_number</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,16 +825,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -846,13 +846,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>21</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -878,30 +878,30 @@
         <v>600123456</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -910,118 +910,118 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>600654321</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>600987654</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <v>600321789</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1030,36 +1030,36 @@
         <v>600213546</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1068,36 +1068,36 @@
         <v>600123456</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1106,36 +1106,36 @@
         <v>600654321</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1144,139 +1144,139 @@
         <v>600987654</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>600321789</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>600213546</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
         <v>107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>108</v>
       </c>
       <c r="E12" s="2">
         <v>722650507</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
         <v>110</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">

--- a/RESBOX.xlsx
+++ b/RESBOX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazzo\Desktop\RESBOX_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057A1A2-0F82-4486-8AF5-987AADB11072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2094CE8-F128-44D7-996C-4E3ABAB35157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D912C2F-04A0-4537-AB64-046C9AA2BC06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>owner_name</t>
   </si>
@@ -53,51 +53,30 @@
     <t>CIF123456A</t>
   </si>
   <si>
-    <t>Pérez</t>
-  </si>
-  <si>
     <t>ES9121000418450200051332</t>
   </si>
   <si>
     <t>CIF789012B</t>
   </si>
   <si>
-    <t>López</t>
-  </si>
-  <si>
     <t>ES9121000418450200051333</t>
   </si>
   <si>
     <t>CIF345678C</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
     <t>ES9121000418450200051334</t>
   </si>
   <si>
     <t>CIF901234D</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
     <t>ES9121000418450200051335</t>
   </si>
   <si>
     <t>CIF567890E</t>
   </si>
   <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
     <t>ES9121000418450200051336</t>
   </si>
   <si>
@@ -107,78 +86,6 @@
     <t>coordinate_y</t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>La Mesa de Oro</t>
-  </si>
-  <si>
-    <t>Sabores del Valle</t>
-  </si>
-  <si>
-    <t>El Rincón del Chef</t>
-  </si>
-  <si>
-    <t>Bistro del Mar</t>
-  </si>
-  <si>
-    <t>Delicias Caseras</t>
-  </si>
-  <si>
-    <t>La Parrilla de la Esquina</t>
-  </si>
-  <si>
-    <t>El Jardín Gourmet</t>
-  </si>
-  <si>
-    <t>Cocina de la Abuela</t>
-  </si>
-  <si>
-    <t>Fuego y Sabor</t>
-  </si>
-  <si>
-    <t>El Fogón de la Familia</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Sofía</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Rodríguez</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
     <t>ana.martinez@example.com</t>
   </si>
   <si>
@@ -194,21 +101,6 @@
     <t>marta.lopez@example.com</t>
   </si>
   <si>
-    <t>diego.perez@example.com</t>
-  </si>
-  <si>
-    <t>laura.garcia@example.com</t>
-  </si>
-  <si>
-    <t>alejandro.sanchez@example.com</t>
-  </si>
-  <si>
-    <t>sofia.morales@example.com</t>
-  </si>
-  <si>
-    <t>andres.castro@example.com</t>
-  </si>
-  <si>
     <t>1. Banco del Futuro</t>
   </si>
   <si>
@@ -224,159 +116,9 @@
     <t>5. Banco Regional Express</t>
   </si>
   <si>
-    <t>6. Banco Horizonte</t>
-  </si>
-  <si>
-    <t>7. Banco de la Ciudad</t>
-  </si>
-  <si>
-    <t>8. Banco Innovación</t>
-  </si>
-  <si>
-    <t>9. Banco Central de Ahorros</t>
-  </si>
-  <si>
-    <t>10. Banco Avance</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Bilbao</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Málaga</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Calle Gran Vía, 45</t>
-  </si>
-  <si>
-    <t>Passeig de Gràcia, 12</t>
-  </si>
-  <si>
-    <t>Calle Colón, 30</t>
-  </si>
-  <si>
-    <t>Avenida de la Constitución, 8</t>
-  </si>
-  <si>
-    <t>Calle Uribitarte, 16</t>
-  </si>
-  <si>
-    <t>Calle de Alcalá, 98</t>
-  </si>
-  <si>
-    <t>Plaza Nueva, 5</t>
-  </si>
-  <si>
-    <t>Calle Larios, 22</t>
-  </si>
-  <si>
-    <t>Paseo Independencia, 42</t>
-  </si>
-  <si>
-    <t>Calle de los Zamoranos, 14</t>
-  </si>
-  <si>
-    <t>-3.7074</t>
-  </si>
-  <si>
-    <t>2.1649</t>
-  </si>
-  <si>
-    <t>-0.3764</t>
-  </si>
-  <si>
-    <t>-5.9823</t>
-  </si>
-  <si>
-    <t>-2.9335</t>
-  </si>
-  <si>
-    <t>-3.6931</t>
-  </si>
-  <si>
-    <t>-3.5985</t>
-  </si>
-  <si>
-    <t>-4.4200</t>
-  </si>
-  <si>
-    <t>-0.8826</t>
-  </si>
-  <si>
-    <t>-5.6643</t>
-  </si>
-  <si>
-    <t>40.4200</t>
-  </si>
-  <si>
-    <t>41.3918</t>
-  </si>
-  <si>
-    <t>39.4634</t>
-  </si>
-  <si>
-    <t>37.3886</t>
-  </si>
-  <si>
-    <t>43.2654</t>
-  </si>
-  <si>
-    <t>40.4254</t>
-  </si>
-  <si>
-    <t>37.1765</t>
-  </si>
-  <si>
-    <t>36.7199</t>
-  </si>
-  <si>
-    <t>41.6560</t>
-  </si>
-  <si>
-    <t>40.9646</t>
-  </si>
-  <si>
-    <t>Daniele Mazzola</t>
-  </si>
-  <si>
-    <t>Daniele</t>
-  </si>
-  <si>
-    <t>Mazzola</t>
-  </si>
-  <si>
-    <t>mazzoladaniele@gmail.com</t>
-  </si>
-  <si>
     <t>Alicante</t>
   </si>
   <si>
-    <t>Los Luceros 1-2</t>
-  </si>
-  <si>
-    <t>38.34547511841635</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.4908237152639117</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -393,13 +135,79 @@
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>BombonBoss Luceros</t>
+  </si>
+  <si>
+    <t>BombonBoss Girona</t>
+  </si>
+  <si>
+    <t>BombonBossPlaza Mar 2</t>
+  </si>
+  <si>
+    <t>BombonBoss Alemania</t>
+  </si>
+  <si>
+    <t>BombonBoss José Garcia</t>
+  </si>
+  <si>
+    <t>Bombon Boss</t>
+  </si>
+  <si>
+    <t>Grupo Azarbe</t>
+  </si>
+  <si>
+    <t>38.34484356082476</t>
+  </si>
+  <si>
+    <t>0.4844228191527853</t>
+  </si>
+  <si>
+    <t>C/ Girona, 1, 03001 Alacant, Alicante</t>
+  </si>
+  <si>
+    <t>Avenida Denia S/N, Plaza Mar, 2, C.C, 03016 Alicante</t>
+  </si>
+  <si>
+    <t>38.354633239896955</t>
+  </si>
+  <si>
+    <t>-0.4716251614819629</t>
+  </si>
+  <si>
+    <t>Placa de los Luceros, 03001 Alacant, Alicante</t>
+  </si>
+  <si>
+    <t>38.345652902952466</t>
+  </si>
+  <si>
+    <t>-0.4905340749768507</t>
+  </si>
+  <si>
+    <t>Carrer Alemania, 37, 03003 Alacant, Alicante</t>
+  </si>
+  <si>
+    <t>38.343254475924006</t>
+  </si>
+  <si>
+    <t>-0.4900101086960091</t>
+  </si>
+  <si>
+    <t>C. José García Sellés, 2, 03015 Alicante</t>
+  </si>
+  <si>
+    <t>38.367575409813234</t>
+  </si>
+  <si>
+    <t>-0.46962970381105307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,14 +227,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,22 +264,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,29 +608,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F007D3A4-B703-4455-A7F0-454AE6E97D91}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -846,441 +643,213 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>600123456</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2">
         <v>600654321</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2">
         <v>600987654</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>600321789</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>600213546</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>600123456</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2">
-        <v>600654321</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2">
-        <v>600987654</v>
-      </c>
-      <c r="F9" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2">
-        <v>600321789</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2">
-        <v>600213546</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="2">
-        <v>722650507</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K16" s="2"/>
+      <c r="K10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
